--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2185.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2185.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.05982043643354</v>
+        <v>1.155687689781189</v>
       </c>
       <c r="B1">
-        <v>1.810151352658292</v>
+        <v>1.943399786949158</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.917298686498205</v>
+        <v>1.545423746109009</v>
       </c>
       <c r="E1">
-        <v>0.9839114541792118</v>
+        <v>0.8990378975868225</v>
       </c>
     </row>
   </sheetData>
